--- a/cfgdefine/test5/single.xlsx
+++ b/cfgdefine/test5/single.xlsx
@@ -37,7 +37,7 @@
     <t>初始物品,100不在item表中</t>
   </si>
   <si>
-    <t>1,2,3,100</t>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
